--- a/documentacao/Banco de dados/dicionario de dados.xlsx
+++ b/documentacao/Banco de dados/dicionario de dados.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel alvares\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel alvares\Desktop\band tec\disciplinas 1S\Z_projeto P.I 3ªSPRINT\Cyberlife\documentacao\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4AF37-4805-4367-BCFC-81342EF24EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F752A-C5BA-4412-8028-BDBB0D3B4850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B60625FA-F1DE-460A-A32A-4856CDA89F55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="DD entidade" sheetId="2" r:id="rId1"/>
+    <sheet name="DD atributo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
   <si>
     <t>atributo</t>
   </si>
@@ -222,9 +223,6 @@
     <t>tempMax</t>
   </si>
   <si>
-    <t>entidade órgão</t>
-  </si>
-  <si>
     <t>entidade sensor</t>
   </si>
   <si>
@@ -243,9 +241,6 @@
     <t>entidade rota</t>
   </si>
   <si>
-    <t>entidade usuário</t>
-  </si>
-  <si>
     <t>idRota</t>
   </si>
   <si>
@@ -418,14 +413,368 @@
   </si>
   <si>
     <t>data e hora da temperatura capturadas dentro da caixa</t>
+  </si>
+  <si>
+    <t>Volume esperado:</t>
+  </si>
+  <si>
+    <t>Tempo de retenção:</t>
+  </si>
+  <si>
+    <t>Rotina de limpeza:</t>
+  </si>
+  <si>
+    <t>entidade orgao</t>
+  </si>
+  <si>
+    <t>entidade usuario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> empresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descrição:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entidade responsável por armazenar os dados das empresas cadastradas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.empresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.caixa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados das caixas de cada empresa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caixa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leitura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados das temperaturas,data e hora capturadas pelo sensor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.leitura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orgao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados dos órgãos que serão usados pelas empresas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.Orgao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados da rota de transporte das caixas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.Rota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sensor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados das temperaturas, data e hora capturadas dentro da caixa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.sensor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entidade: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Descrição: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade responsável por armazenar os dados dos usuários cadastrados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nome da tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbo.usuario</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -454,12 +803,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -489,21 +838,109 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -512,24 +949,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,11 +1291,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7944ADE-D100-4E13-8EFA-A90EBA8EEC56}">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C066EE5-60CF-46E1-A675-28C9FF634E04}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,257 +1604,265 @@
     <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>45</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>50</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>45</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1120,95 +1872,95 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="8">
         <v>10</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1218,643 +1970,660 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="8">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="8">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8">
+        <v>45</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="8">
+        <v>23</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="8">
+        <v>23</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="8">
+        <v>10</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="8">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8">
+        <v>45</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="8">
+        <v>23</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="8">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6">
         <v>10</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="F52" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="8">
+        <v>60</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="8">
+        <v>45</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="8">
+        <v>45</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="8">
+        <v>45</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="4">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="D57" s="8">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="E57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="8">
         <v>10</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4">
-        <v>45</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="4">
-        <v>23</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="4">
-        <v>23</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="4">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="E58" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="4">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="4">
-        <v>45</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="4">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="4">
-        <v>23</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="4">
-        <v>10</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="4">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="4">
-        <v>60</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="4">
-        <v>45</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="4">
-        <v>45</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="4">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>122</v>
+      <c r="F58" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="6">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentacao/Banco de dados/dicionario de dados.xlsx
+++ b/documentacao/Banco de dados/dicionario de dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel alvares\Desktop\band tec\disciplinas 1S\Z_projeto P.I 3ªSPRINT\Cyberlife\documentacao\Banco de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Documents\Bandtec\Pesquisa e Inovação\sprint\Cyberlife\documentacao\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F752A-C5BA-4412-8028-BDBB0D3B4850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F2429-D3A5-44C5-B2F8-D738BD3548BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B60625FA-F1DE-460A-A32A-4856CDA89F55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B60625FA-F1DE-460A-A32A-4856CDA89F55}"/>
   </bookViews>
   <sheets>
     <sheet name="DD entidade" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="163">
   <si>
     <t>atributo</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>data e hora da temperatura capturadas dentro da caixa</t>
-  </si>
-  <si>
-    <t>Volume esperado:</t>
   </si>
   <si>
     <t>Tempo de retenção:</t>
@@ -759,6 +756,42 @@
       </rPr>
       <t>dbo.usuario</t>
     </r>
+  </si>
+  <si>
+    <t>Tempo de retenção: permanente</t>
+  </si>
+  <si>
+    <t>Rotina de limpeza: Não se aplica</t>
+  </si>
+  <si>
+    <t>Volume esperado: 20 por mês</t>
+  </si>
+  <si>
+    <t>Volume esperado: 200 por mês</t>
+  </si>
+  <si>
+    <t>Tempo de retenção: 1 mês</t>
+  </si>
+  <si>
+    <t>Volume esperado: 2000 por mês</t>
+  </si>
+  <si>
+    <t>Volume esperado: 20 por ano</t>
+  </si>
+  <si>
+    <t>Volume esperado: 400 por mês</t>
+  </si>
+  <si>
+    <t>Rotina de limpeza: Uma vez a cada 5 anos</t>
+  </si>
+  <si>
+    <t>Rotina de limpeza: Uma vez a cada 1 ano</t>
+  </si>
+  <si>
+    <t>Rotina de limpeza:  Uma vez a cada 5 anos</t>
+  </si>
+  <si>
+    <t>Volume esperado: carga inicial de 60 ocorrências e volume mensal de 2 ocorrências</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7944ADE-D100-4E13-8EFA-A90EBA8EEC56}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1311,32 +1346,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1350,32 +1385,32 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1389,32 +1424,32 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1457,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -1430,32 +1465,32 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1471,32 +1506,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1512,32 +1547,32 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1545,7 +1580,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -1553,32 +1588,32 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C066EE5-60CF-46E1-A675-28C9FF634E04}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -2060,7 +2095,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2446,7 +2481,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>

--- a/documentacao/Banco de dados/dicionario de dados.xlsx
+++ b/documentacao/Banco de dados/dicionario de dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Documents\Bandtec\Pesquisa e Inovação\sprint\Cyberlife\documentacao\Banco de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel alvares\Desktop\band tec\disciplinas 1S\Z_projeto P.I 3ªSPRINT\Cyberlife\documentacao\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F2429-D3A5-44C5-B2F8-D738BD3548BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3534D-8EC2-416F-B03C-E24DF1B00208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B60625FA-F1DE-460A-A32A-4856CDA89F55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B60625FA-F1DE-460A-A32A-4856CDA89F55}"/>
   </bookViews>
   <sheets>
     <sheet name="DD entidade" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>atributo</t>
   </si>
@@ -415,12 +415,6 @@
     <t>data e hora da temperatura capturadas dentro da caixa</t>
   </si>
   <si>
-    <t>Tempo de retenção:</t>
-  </si>
-  <si>
-    <t>Rotina de limpeza:</t>
-  </si>
-  <si>
     <t>entidade orgao</t>
   </si>
   <si>
@@ -758,40 +752,184 @@
     </r>
   </si>
   <si>
-    <t>Tempo de retenção: permanente</t>
-  </si>
-  <si>
-    <t>Rotina de limpeza: Não se aplica</t>
-  </si>
-  <si>
-    <t>Volume esperado: 20 por mês</t>
-  </si>
-  <si>
-    <t>Volume esperado: 200 por mês</t>
-  </si>
-  <si>
-    <t>Tempo de retenção: 1 mês</t>
-  </si>
-  <si>
-    <t>Volume esperado: 2000 por mês</t>
-  </si>
-  <si>
-    <t>Volume esperado: 20 por ano</t>
-  </si>
-  <si>
-    <t>Volume esperado: 400 por mês</t>
-  </si>
-  <si>
-    <t>Rotina de limpeza: Uma vez a cada 5 anos</t>
-  </si>
-  <si>
-    <t>Rotina de limpeza: Uma vez a cada 1 ano</t>
-  </si>
-  <si>
-    <t>Rotina de limpeza:  Uma vez a cada 5 anos</t>
-  </si>
-  <si>
-    <t>Volume esperado: carga inicial de 60 ocorrências e volume mensal de 2 ocorrências</t>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carga inicial de 60 ocorrências e volume mensal de 2 ocorrências</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotina de limpeza: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uma vez a cada 5 anos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000 por mês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tempo de retenção: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 mês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400 por mês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 por ano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tempo de retenção: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permanente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotina de limpeza: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uma vez a cada 1 ano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200 por mês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotina de limpeza:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uma vez a cada 5 anos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volume esperado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 por mês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotina de limpeza: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Não se aplica</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1327,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7944ADE-D100-4E13-8EFA-A90EBA8EEC56}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,32 +1484,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1385,32 +1523,32 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1424,32 +1562,32 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,7 +1595,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -1465,32 +1603,32 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1506,32 +1644,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1547,32 +1685,32 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1580,7 +1718,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -1588,36 +1726,37 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1625,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C066EE5-60CF-46E1-A675-28C9FF634E04}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2234,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2481,7 +2620,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
